--- a/biology/Médecine/Chlorure_de_strontium/Chlorure_de_strontium.xlsx
+++ b/biology/Médecine/Chlorure_de_strontium/Chlorure_de_strontium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chlorure de strontium (SrCl2) est un sel de strontium et du chlorure. C'est un sel classique, formant une solution aqueuse neutre. Comme tous les composés de strontium, lors de sa combustion ce sel émet une flamme de couleur rouge vif, et donc utilisée pour les feux d'artifice pour obtenir cette couleur. Ses propriétés chimiques sont intermédiaires entre celles du chlorure de baryum, qui est plus toxique, et le chlorure de calcium.
@@ -512,13 +524,15 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chlorure de strontium peut être préparé en traitant l'hydroxyde de strontium ou de carbonate de strontium avec de l'acide chlorhydrique.
 Sr(OH)2  +   2 HCl  →  SrCl2  +  2 H2O
 ou
 SrCO3 + 2 HCl → SrCl2 + H2O + CO2
-La cristallisation dans une solution aqueuse froide donne l'hexahydrate, SrCl2·6H2O. La déshydratation de ce sel se fait par étapes, en commençant au-dessus de 61 °C et la déshydratation complète survient à 320 °C[4].
+La cristallisation dans une solution aqueuse froide donne l'hexahydrate, SrCl2·6H2O. La déshydratation de ce sel se fait par étapes, en commençant au-dessus de 61 °C et la déshydratation complète survient à 320 °C.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le solide adopte une structure rutile déformée. Dans sa phase gazeuse, la molécule SrCl2 est non-linéaire avec un angle Cl-Sr-Cl de 130° environ. Ceci est une exception à la théorie VSEPR qui prédit une structure linéaire. Des calculs ab initio ont été cités pour proposer que les contributions des orbitales d au-dessous de la couche de valence sont responsables[5]. Une autre proposition est que la polarisation du noyau d'électrons de l'atome de strontium provoque une distorsion de la densité électronique de base qui interagit avec les liens Sr-Cl[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le solide adopte une structure rutile déformée. Dans sa phase gazeuse, la molécule SrCl2 est non-linéaire avec un angle Cl-Sr-Cl de 130° environ. Ceci est une exception à la théorie VSEPR qui prédit une structure linéaire. Des calculs ab initio ont été cités pour proposer que les contributions des orbitales d au-dessous de la couche de valence sont responsables. Une autre proposition est que la polarisation du noyau d'électrons de l'atome de strontium provoque une distorsion de la densité électronique de base qui interagit avec les liens Sr-Cl.
 </t>
         </is>
       </c>
@@ -578,12 +594,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chlorure de strontium est le précurseur d'autres composés de strontium, tels que le chromate de strontium jaune, qui est utilisé comme un inhibiteur de corrosion pour l'aluminium. Les processus de précipitations sont analogues à ceux des sulfates de isostructuraux[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chlorure de strontium est le précurseur d'autres composés de strontium, tels que le chromate de strontium jaune, qui est utilisé comme un inhibiteur de corrosion pour l'aluminium. Les processus de précipitations sont analogues à ceux des sulfates de isostructuraux :
 SrCl2  +  Na2CrO4  →  SrCrO4  +  2 NaCl
 Le chlorure de strontium est souvent utilisé comme colorant rouge dans la pyrotechnie. Il est employé en petites quantités dans la fabrication du verre et la métallurgie.
-L'isotope radioactif du strontium 89, utilisé pour le traitement des douleurs métastatiques des os par radiothérapie métabolique, est habituellement administré sous forme de chlorure de strontium[7],[8]. Les aquariums d'eau de mer nécessitent de petites quantités de chlorure de strontium, qui est consommé dans la production de l'exosquelette de certains planctons.
+L'isotope radioactif du strontium 89, utilisé pour le traitement des douleurs métastatiques des os par radiothérapie métabolique, est habituellement administré sous forme de chlorure de strontium,. Les aquariums d'eau de mer nécessitent de petites quantités de chlorure de strontium, qui est consommé dans la production de l'exosquelette de certains planctons.
 </t>
         </is>
       </c>
